--- a/LLGMN/w_calc.xlsx
+++ b/LLGMN/w_calc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adm\source\repos\LLGMN\LLGMN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{349093FB-43F7-4D84-BD50-5059D06F26B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C350FEB-45E6-444B-AB11-962F262F87A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1512" windowWidth="11868" windowHeight="10440"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22800" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="51">
   <si>
     <t>double</t>
   </si>
@@ -86,12 +94,110 @@
   </si>
   <si>
     <t>sum_dJ_dw</t>
+  </si>
+  <si>
+    <t>t[0]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>y[0]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>◢</t>
+  </si>
+  <si>
+    <t>layer_out[0],7</t>
+  </si>
+  <si>
+    <t>0x00ddd1b0 {-6.2774385622041925e+66, 1.0000000000000000, 0.17344999999999999, 1.5659000000000001, 0.030084902499999996, ...}</t>
+  </si>
+  <si>
+    <t>double[7]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>layer_in[1],9</t>
+  </si>
+  <si>
+    <t>0x00d86f08 {0.00000000000000000, 2.7540234780417903, -2.5401915619448738, 102.25966865208107, 0.54262589159460128, ...}</t>
+  </si>
+  <si>
+    <t>double[9]</t>
+  </si>
+  <si>
+    <t>layer_out[1],9</t>
+  </si>
+  <si>
+    <t>0x00d3ead0 {0.00000000000000000, 6.0988420036969978e-44, 3.0619564172249607e-46, 1.0000000000000000, ...}</t>
+  </si>
+  <si>
+    <t>layer_in[2],5</t>
+  </si>
+  <si>
+    <t>0x00d8cfb0 {-nan(ind), 1.0000000000000000, 2.3544764932900542e-42, 1.5702658462236111e-43, 3.8832037925709966e-45}</t>
+  </si>
+  <si>
+    <t>double[5]</t>
+  </si>
+  <si>
+    <t>-nan(ind)</t>
+  </si>
+  <si>
+    <t>w[1],9</t>
+  </si>
+  <si>
+    <t>0x00d20548 {0.30674153874324772, -0.19367810173151082, 0.25281659755532604, 24.448592586383654, 1.1950547005804704, ...}</t>
+  </si>
+  <si>
+    <t>w[2],9</t>
+  </si>
+  <si>
+    <t>0x00d3c920 {0.44395275734733119, 0.50783786354482652, 0.14698826568179407, -9.2261344140806862, 0.78457330219082999, ...}</t>
+  </si>
+  <si>
+    <t>w[3],9</t>
+  </si>
+  <si>
+    <t>0x00d3c998 {0.41404461806085391, 0.55924818125672693, -0.30775949292414939, -35.856477076198097, -1.3873698839076771, ...}</t>
+  </si>
+  <si>
+    <t>w[4],9</t>
+  </si>
+  <si>
+    <t>0x00d3ca10 {-0.88189336832789089, -0.67516465134526082, -0.52933824669236196, 3.4441738670371067, -0.32174140316922772, ...}</t>
+  </si>
+  <si>
+    <t>w[5],9</t>
+  </si>
+  <si>
+    <t>0x00d3ca88 {0.63744010742515345, 0.56265267071798530, -0.72083026103845627, 13.308721647765967, -0.52983895559820071, ...}</t>
+  </si>
+  <si>
+    <t>w[6],9</t>
+  </si>
+  <si>
+    <t>0x00d3cb00 {0.58439893795587028, 0.75503704588528553, -0.86657387345020631, 53.767686393174259, 0.62705108698032930, ...}</t>
+  </si>
+  <si>
+    <t>layer_out[600][2]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>layer_out[600][1]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>layer_out[600][0]</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -739,7 +845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,6 +863,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1112,14 +1224,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1">
@@ -1385,6 +1501,9 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12">
@@ -1412,6 +1531,16 @@
       <c r="K12" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13">
@@ -1441,6 +1570,16 @@
         <f>EXP(J13)</f>
         <v>0.89787114059879591</v>
       </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2.7613751882235899E-3</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14">
@@ -1470,6 +1609,16 @@
         <f t="shared" ref="K14:K20" si="1">EXP(J14)</f>
         <v>25.036978224367985</v>
       </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1.5220771982606999E-3</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15">
@@ -1499,6 +1648,16 @@
         <f t="shared" si="1"/>
         <v>0.22097054784335834</v>
       </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.99510469310468097</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16">
@@ -1528,8 +1687,18 @@
         <f t="shared" si="1"/>
         <v>0.56123929113800763</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M16" s="2"/>
+      <c r="N16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3.9799731081279502E-4</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1558,7 +1727,7 @@
         <v>3.1257961710469964</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1586,8 +1755,11 @@
         <f t="shared" si="1"/>
         <v>0.94866225447128061</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1615,8 +1787,18 @@
         <f t="shared" si="1"/>
         <v>0.65288067420492657</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M19" s="4"/>
+      <c r="N19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1644,8 +1826,18 @@
         <f t="shared" si="1"/>
         <v>0.59058239333674323</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M20" s="2"/>
+      <c r="N20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.13857198021334E-4</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1659,8 +1851,18 @@
         <f>SUM(K13:K20)</f>
         <v>32.034980697008095</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M21" s="2"/>
+      <c r="N21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>2.66421578668682E-3</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1673,8 +1875,18 @@
       <c r="E22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M22" s="2"/>
+      <c r="N22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="7">
+        <v>9.7159401536762495E-5</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1694,8 +1906,18 @@
       <c r="H23" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M23" s="2"/>
+      <c r="N23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="7">
+        <v>5.3258118170392699E-5</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1719,8 +1941,18 @@
         <f>EXP(J13)/$K$21</f>
         <v>2.8027834606519759E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M24" s="2"/>
+      <c r="N24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.4688190800903099E-3</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1744,8 +1976,18 @@
         <f t="shared" ref="J25:J31" si="2">EXP(J14)/$K$21</f>
         <v>0.78155121931152938</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M25" s="2"/>
+      <c r="N25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2.0274127323682901E-4</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1769,8 +2011,18 @@
         <f t="shared" si="2"/>
         <v>6.8977893239060345E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M26" s="2"/>
+      <c r="N26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.99490195183144403</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1794,8 +2046,18 @@
         <f t="shared" si="2"/>
         <v>1.7519576379530159E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M27" s="2"/>
+      <c r="N27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3.9799731081279502E-4</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1820,7 +2082,7 @@
         <v>9.7574467130518039E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1844,8 +2106,11 @@
         <f t="shared" si="2"/>
         <v>2.9613323742688595E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1869,8 +2134,18 @@
         <f t="shared" si="2"/>
         <v>2.0380242472438959E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M30" s="4"/>
+      <c r="N30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1894,8 +2169,18 @@
         <f t="shared" si="2"/>
         <v>1.8435547032868999E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M31" s="2"/>
+      <c r="N31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1905,8 +2190,18 @@
       <c r="C32">
         <v>-7.9744999999999996E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M32" s="2"/>
+      <c r="N32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-1.4906999999999899</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1919,8 +2214,18 @@
       <c r="E33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M33" s="2"/>
+      <c r="N33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-1.5780000000000001</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1940,8 +2245,18 @@
       <c r="H34" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M34" s="2"/>
+      <c r="N34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2.2221864899999901</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1965,8 +2280,18 @@
         <f>G25+G26</f>
         <v>0.78844916962470946</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M35" s="2"/>
+      <c r="N35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2.35232459999999</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1990,8 +2315,18 @@
         <f>G27+G28</f>
         <v>0.11509397033420331</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="M36" s="2"/>
+      <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2.490084</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2016,7 +2351,7 @@
         <v>4.99935351694707E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2040,8 +2375,12 @@
         <f>G31+G32</f>
         <v>1.8435516864680399E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="O38">
+        <f>(O16-1)*O26*O32/O16</f>
+        <v>3724.9248408756803</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2052,7 +2391,7 @@
         <v>0.58269000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2062,8 +2401,11 @@
       <c r="C40">
         <v>-6.7170999999999995E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2073,8 +2415,18 @@
       <c r="C41">
         <v>-0.54258899999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E41" s="4"/>
+      <c r="F41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>4</v>
       </c>
@@ -2084,8 +2436,18 @@
       <c r="C42">
         <v>-0.43620100000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E42" s="2"/>
+      <c r="F42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2095,8 +2457,18 @@
       <c r="C43">
         <v>-1.1443999999999999E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E43" s="2"/>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>4</v>
       </c>
@@ -2106,8 +2478,18 @@
       <c r="C44">
         <v>-0.86999099999999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E44" s="2"/>
+      <c r="F44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>4</v>
       </c>
@@ -2117,8 +2499,18 @@
       <c r="C45">
         <v>-0.48429800000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E45" s="2"/>
+      <c r="F45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2129,7 +2521,7 @@
         <v>0.75554699999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2139,8 +2531,11 @@
       <c r="C47">
         <v>-0.63597499999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2150,8 +2545,18 @@
       <c r="C48">
         <v>0.99926800000000005</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E48" s="4"/>
+      <c r="F48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2161,8 +2566,22 @@
       <c r="C49">
         <v>-0.62120399999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.102700354439245</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>LOG(G49)</f>
+        <v>-0.98842805756394236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2172,8 +2591,18 @@
       <c r="C50">
         <v>0.38370900000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E50" s="2"/>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.30320652825277</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>5</v>
       </c>
@@ -2183,8 +2612,22 @@
       <c r="C51">
         <v>-5.9235999999999997E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E51" s="2"/>
+      <c r="F51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.389286615601729</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>L60*G58+L70*G59+L80*G60+L90*G61+L100*G62+L110*G63</f>
+        <v>102.25966865208102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2194,8 +2637,18 @@
       <c r="C52">
         <v>-0.45475599999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E52" s="2"/>
+      <c r="F52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.12616868679757301</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>5</v>
       </c>
@@ -2206,7 +2659,7 @@
         <v>0.93115000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2217,7 +2670,7 @@
         <v>9.6407999999999994E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>6</v>
       </c>
@@ -2227,8 +2680,28 @@
       <c r="C55">
         <v>-0.13071099999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E55" s="4"/>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>6</v>
       </c>
@@ -2238,8 +2711,32 @@
       <c r="C56">
         <v>3.2684999999999999E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>6</v>
       </c>
@@ -2249,8 +2746,28 @@
       <c r="C57">
         <v>0.23209299999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E57" s="2"/>
+      <c r="F57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="7">
+        <v>-6.2774385622041902E+66</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="K57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0.306741538743247</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2260,8 +2777,28 @@
       <c r="C58">
         <v>-0.84179199999999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E58" s="2"/>
+      <c r="F58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2"/>
+      <c r="K58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="1">
+        <v>-0.19367810173151001</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>6</v>
       </c>
@@ -2271,8 +2808,28 @@
       <c r="C59">
         <v>2.8596E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E59" s="2"/>
+      <c r="F59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.17344999999999899</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0.25281659755532598</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>6</v>
       </c>
@@ -2282,8 +2839,28 @@
       <c r="C60">
         <v>0.80590200000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E60" s="2"/>
+      <c r="F60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.5659000000000001</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L60" s="1">
+        <v>24.448592586383601</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>6</v>
       </c>
@@ -2293,8 +2870,28 @@
       <c r="C61">
         <v>0.30381200000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E61" s="2"/>
+      <c r="F61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>3.0084902499999899E-2</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1.1950547005804699</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>6</v>
       </c>
@@ -2304,8 +2901,28 @@
       <c r="C62">
         <v>-0.66472399999999998</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E62" s="2"/>
+      <c r="F62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.27160535499999899</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2"/>
+      <c r="K62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0.84618108205950604</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>6</v>
       </c>
@@ -2314,10 +2931,931 @@
       </c>
       <c r="C63">
         <v>-0.37888699999999997</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2.45204281</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2"/>
+      <c r="K63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>-0.46643359469260698</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" s="2"/>
+      <c r="K64" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0.411420580919025</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E65" s="2"/>
+      <c r="F65" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2"/>
+      <c r="K65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1">
+        <v>0</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E66" s="2"/>
+      <c r="F66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2.7540234780417898</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E67" s="2"/>
+      <c r="F67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-2.5401915619448698</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2"/>
+      <c r="K67" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" s="1">
+        <v>0.44395275734733097</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E68" s="2"/>
+      <c r="F68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="1">
+        <v>102.259668652081</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2"/>
+      <c r="K68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L68" s="1">
+        <v>0.50783786354482596</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E69" s="2"/>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.54262589159460095</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L69" s="1">
+        <v>0.14698826568179399</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E70" s="2"/>
+      <c r="F70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" s="1">
+        <v>6.4045714928969302</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2"/>
+      <c r="K70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="1">
+        <v>-9.2261344140806791</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E71" s="2"/>
+      <c r="F71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3.6900547170717899</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2"/>
+      <c r="K71" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="1">
+        <v>0.78457330219082899</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E72" s="2"/>
+      <c r="F72" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>-0.94073421331148599</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0.51663248068637302</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E73" s="2"/>
+      <c r="F73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L73" s="1">
+        <v>1.2017889445082299</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E74" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>-0.552932912391359</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E75" s="2"/>
+      <c r="F75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2"/>
+      <c r="K75" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E76" s="2"/>
+      <c r="F76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="7">
+        <v>6.0988420036969898E-44</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E77" s="2"/>
+      <c r="F77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" s="7">
+        <v>3.0619564172249599E-46</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0.41404461806085302</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E78" s="2"/>
+      <c r="F78" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0.55924818125672604</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E79" s="2"/>
+      <c r="F79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="7">
+        <v>6.6811252519003399E-45</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2"/>
+      <c r="K79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L79" s="1">
+        <v>-0.307759492924149</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E80" s="2"/>
+      <c r="F80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G80" s="7">
+        <v>2.34779536803815E-42</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="1">
+        <v>-35.856477076197997</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E81" s="2"/>
+      <c r="F81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1.55510810440847E-43</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="1">
+        <v>-1.38736988390767</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E82" s="2"/>
+      <c r="F82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="7">
+        <v>1.51577418151314E-45</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" s="1">
+        <v>1.76987126205241</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E83" s="2"/>
+      <c r="F83" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
+        <v>3.8832037925709897E-45</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="1">
+        <v>1.2232374212497701</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E84" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0.680903568735161</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E85" s="2"/>
+      <c r="F85" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E86" s="2"/>
+      <c r="F86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E87" s="2"/>
+      <c r="F87" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="7">
+        <v>2.3544764932900501E-42</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L87" s="1">
+        <v>-0.88189336832789</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E88" s="2"/>
+      <c r="F88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="7">
+        <v>1.5702658462236101E-43</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2"/>
+      <c r="K88" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L88" s="1">
+        <v>-0.67516465134526005</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E89" s="2"/>
+      <c r="F89" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="7">
+        <v>3.8832037925709897E-45</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2"/>
+      <c r="K89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L89" s="1">
+        <v>-0.52933824669236096</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J90" s="2"/>
+      <c r="K90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3.4441738670371</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J91" s="2"/>
+      <c r="K91" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="1">
+        <v>-0.321741403169227</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J92" s="2"/>
+      <c r="K92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L92" s="1">
+        <v>2.28357211951344</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J93" s="2"/>
+      <c r="K93" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1.2567371266654701</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J94" s="2"/>
+      <c r="K94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L94" s="1">
+        <v>-0.20532150156793899</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J95" s="2"/>
+      <c r="K95" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J97" s="2"/>
+      <c r="K97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0.637440107425153</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J98" s="2"/>
+      <c r="K98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L98" s="1">
+        <v>0.56265267071798497</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J99" s="2"/>
+      <c r="K99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L99" s="1">
+        <v>-0.72083026103845604</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J100" s="2"/>
+      <c r="K100" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L100" s="1">
+        <v>13.3087216477659</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J101" s="2"/>
+      <c r="K101" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="1">
+        <v>-0.52983895559820005</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J102" s="2"/>
+      <c r="K102" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="1">
+        <v>1.38292078497869</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J103" s="2"/>
+      <c r="K103" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" s="1">
+        <v>-0.34944963953715902</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J104" s="2"/>
+      <c r="K104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L104" s="1">
+        <v>-0.48815858259886702</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J105" s="2"/>
+      <c r="K105" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="10:13" ht="245.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J106" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J107" s="2"/>
+      <c r="K107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0.58439893795586995</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J108" s="2"/>
+      <c r="K108" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.75503704588528497</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J109" s="2"/>
+      <c r="K109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L109" s="1">
+        <v>-0.86657387345020598</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J110" s="2"/>
+      <c r="K110" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L110" s="1">
+        <v>53.767686393174202</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J111" s="2"/>
+      <c r="K111" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0.62705108698032896</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J112" s="2"/>
+      <c r="K112" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0.91883769456137498</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J113" s="2"/>
+      <c r="K113" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.85221763354191904</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J114" s="2"/>
+      <c r="K114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L114" s="1">
+        <v>-0.89056843032024002</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="10:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J115" s="2"/>
+      <c r="K115" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>